--- a/test/official_test_case_2.xlsx
+++ b/test/official_test_case_2.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limnaroline/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\WEHI\prod\forecasting-with-workday-project\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4BCA94D-96C6-D645-A8DA-4375C5D135DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD3B662-5CD9-47A4-9ED8-A9B79F9EB64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17600" yWindow="1660" windowWidth="14940" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Funding" sheetId="1" r:id="rId1"/>
-    <sheet name="Expense" sheetId="2" r:id="rId2"/>
+    <sheet name="Description" sheetId="3" r:id="rId1"/>
+    <sheet name="Funding" sheetId="1" r:id="rId2"/>
+    <sheet name="Expense" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>Source ID</t>
   </si>
@@ -110,18 +111,12 @@
     <t>Salary</t>
   </si>
   <si>
-    <t>12/31/2025</t>
-  </si>
-  <si>
     <t>Equipment</t>
   </si>
   <si>
     <t>Salary, Equipment</t>
   </si>
   <si>
-    <t>6/30/2025</t>
-  </si>
-  <si>
     <t>Travel</t>
   </si>
   <si>
@@ -203,25 +198,40 @@
     <t>E010</t>
   </si>
   <si>
-    <t>3/15/2025</t>
-  </si>
-  <si>
-    <t>5/20/2025</t>
-  </si>
-  <si>
-    <t>7/15/2025</t>
-  </si>
-  <si>
-    <t>8/20/2025</t>
-  </si>
-  <si>
-    <t>11/15/2025</t>
+    <t>Tom's salary</t>
+  </si>
+  <si>
+    <t>microscope</t>
+  </si>
+  <si>
+    <t>Jack's salary</t>
+  </si>
+  <si>
+    <t>trip to sydney</t>
+  </si>
+  <si>
+    <t>pipettes</t>
+  </si>
+  <si>
+    <t>Alice's salary</t>
+  </si>
+  <si>
+    <t>trip to adelaide</t>
+  </si>
+  <si>
+    <t>dishes</t>
+  </si>
+  <si>
+    <t>trip to perth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,14 +261,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -276,6 +283,150 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686204CB-E0C6-4D46-9C98-9039FEAE16B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="205740"/>
+          <a:ext cx="3048000" cy="1097280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>What’s happening: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Money exists, but it’s mostly in the wrong categories. Travel funds </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AE"/>
+            <a:t>₹8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>k total</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Travel expenses </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AE"/>
+            <a:t>₹15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>k</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Salary/Equipment still have </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AE"/>
+            <a:t>₹30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>k+ unused</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> Travel can’t “borrow” from Salary/Equipment, so Travel shows a shortfall.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,355 +707,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C80581-EDD7-4F2D-98AB-9CE0EEB6EC73}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1">
-        <v>45664</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1">
-        <v>45664</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45658</v>
+      </c>
+      <c r="E2" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45658</v>
+      </c>
+      <c r="E3" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F3" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45658</v>
+      </c>
+      <c r="E4" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45658</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45838</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45658</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45838</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45658</v>
+      </c>
+      <c r="E7" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45658</v>
+      </c>
+      <c r="E8" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45658</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45838</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45658</v>
+      </c>
+      <c r="E10" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45658</v>
+      </c>
+      <c r="E11" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45658</v>
+      </c>
+      <c r="E12" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45658</v>
+      </c>
+      <c r="E13" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45658</v>
+      </c>
+      <c r="E14" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45664</v>
+      </c>
+      <c r="E15" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45664</v>
+      </c>
+      <c r="E16" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -927,173 +1093,203 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1">
         <v>8000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>45932</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1">
         <v>7000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>45934</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
         <v>6000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>45936</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>10000</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="3">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1">
         <v>12000</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="3">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>9000</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="3">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
         <v>10000</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="3">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>8000</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>45940</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1">
         <v>7000</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="3">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="3">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
         <v>5000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>45942</v>
       </c>
     </row>

--- a/test/official_test_case_2.xlsx
+++ b/test/official_test_case_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limnaroline/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limnaroline/forecasting-project/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4BCA94D-96C6-D645-A8DA-4375C5D135DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB50AA4-A035-4F47-A7FE-09BFFC2EA7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17600" yWindow="1660" windowWidth="14940" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funding" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Source ID</t>
   </si>
@@ -110,18 +110,12 @@
     <t>Salary</t>
   </si>
   <si>
-    <t>12/31/2025</t>
-  </si>
-  <si>
     <t>Equipment</t>
   </si>
   <si>
     <t>Salary, Equipment</t>
   </si>
   <si>
-    <t>6/30/2025</t>
-  </si>
-  <si>
     <t>Travel</t>
   </si>
   <si>
@@ -201,27 +195,16 @@
   </si>
   <si>
     <t>E010</t>
-  </si>
-  <si>
-    <t>3/15/2025</t>
-  </si>
-  <si>
-    <t>5/20/2025</t>
-  </si>
-  <si>
-    <t>7/15/2025</t>
-  </si>
-  <si>
-    <t>8/20/2025</t>
-  </si>
-  <si>
-    <t>11/15/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="d/mm/yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,14 +234,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -559,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -593,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -601,10 +587,10 @@
       <c r="D2" s="1">
         <v>45658</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F2" s="2">
         <v>30000</v>
       </c>
     </row>
@@ -613,18 +599,18 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1">
         <v>45658</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F3" s="2">
         <v>25000</v>
       </c>
     </row>
@@ -633,18 +619,18 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
         <v>45658</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F4" s="2">
         <v>20000</v>
       </c>
     </row>
@@ -653,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -661,10 +647,10 @@
       <c r="D5" s="1">
         <v>45658</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="5">
+        <v>45838</v>
+      </c>
+      <c r="F5" s="2">
         <v>10000</v>
       </c>
     </row>
@@ -673,18 +659,18 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>45658</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="5">
+        <v>45838</v>
+      </c>
+      <c r="F6" s="2">
         <v>8000</v>
       </c>
     </row>
@@ -693,18 +679,18 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>45658</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F7" s="2">
         <v>12000</v>
       </c>
     </row>
@@ -713,18 +699,18 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>45658</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F8" s="2">
         <v>5000</v>
       </c>
     </row>
@@ -733,18 +719,18 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>45658</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="5">
+        <v>45838</v>
+      </c>
+      <c r="F9" s="2">
         <v>3000</v>
       </c>
     </row>
@@ -753,18 +739,18 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>45658</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F10" s="2">
         <v>2000</v>
       </c>
     </row>
@@ -773,7 +759,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -781,10 +767,10 @@
       <c r="D11" s="1">
         <v>45658</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F11" s="2">
         <v>3000</v>
       </c>
     </row>
@@ -793,18 +779,18 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
         <v>45658</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F12" s="2">
         <v>3000</v>
       </c>
     </row>
@@ -813,7 +799,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -821,10 +807,10 @@
       <c r="D13" s="1">
         <v>45658</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F13" s="2">
         <v>3000</v>
       </c>
     </row>
@@ -833,18 +819,18 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1">
         <v>45658</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F14" s="2">
         <v>3000</v>
       </c>
     </row>
@@ -853,18 +839,18 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="1">
-        <v>45664</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3">
+        <v>45839</v>
+      </c>
+      <c r="E15" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F15" s="2">
         <v>3000</v>
       </c>
     </row>
@@ -873,18 +859,18 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1">
-        <v>45664</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="3">
+        <v>45839</v>
+      </c>
+      <c r="E16" s="3">
+        <v>46022</v>
+      </c>
+      <c r="F16" s="2">
         <v>3000</v>
       </c>
     </row>
@@ -898,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -932,16 +918,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2">
         <v>8000</v>
       </c>
       <c r="F2" s="4">
-        <v>45932</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -949,16 +935,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2">
         <v>7000</v>
       </c>
       <c r="F3" s="4">
-        <v>45934</v>
+        <v>45757</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -966,16 +952,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2">
         <v>6000</v>
       </c>
       <c r="F4" s="4">
-        <v>45936</v>
+        <v>45818</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -983,16 +969,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>10000</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>60</v>
+      <c r="F5" s="4">
+        <v>45731</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1000,16 +986,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2">
         <v>12000</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>61</v>
+      <c r="F6" s="4">
+        <v>45797</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1017,16 +1003,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>9000</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>62</v>
+      <c r="F7" s="4">
+        <v>45853</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1034,16 +1020,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2">
         <v>10000</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>63</v>
+      <c r="F8" s="4">
+        <v>45889</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1051,12 +1037,12 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>8000</v>
       </c>
       <c r="F9" s="4">
@@ -1068,16 +1054,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
         <v>7000</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>64</v>
+      <c r="F10" s="4">
+        <v>45976</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1085,16 +1071,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="3">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2">
         <v>5000</v>
       </c>
       <c r="F11" s="4">
-        <v>45942</v>
+        <v>46001</v>
       </c>
     </row>
   </sheetData>

--- a/test/official_test_case_2.xlsx
+++ b/test/official_test_case_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limnaroline/forecasting-project/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\WEHI\prod\forecasting-with-workday-project\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB50AA4-A035-4F47-A7FE-09BFFC2EA7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F138AA-E5F2-4973-B220-321CD1A35AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funding" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
-  <si>
-    <t>Source ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Funding Source</t>
   </si>
@@ -47,9 +44,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Expense ID</t>
-  </si>
-  <si>
     <t>Expense Name</t>
   </si>
   <si>
@@ -62,51 +56,6 @@
     <t>Latest Payment Date</t>
   </si>
   <si>
-    <t>FS001</t>
-  </si>
-  <si>
-    <t>FS002</t>
-  </si>
-  <si>
-    <t>FS003</t>
-  </si>
-  <si>
-    <t>FS004</t>
-  </si>
-  <si>
-    <t>FS005</t>
-  </si>
-  <si>
-    <t>FS006</t>
-  </si>
-  <si>
-    <t>FS007</t>
-  </si>
-  <si>
-    <t>FS008</t>
-  </si>
-  <si>
-    <t>FS009</t>
-  </si>
-  <si>
-    <t>FS010</t>
-  </si>
-  <si>
-    <t>FS011</t>
-  </si>
-  <si>
-    <t>FS012</t>
-  </si>
-  <si>
-    <t>FS013</t>
-  </si>
-  <si>
-    <t>FS014</t>
-  </si>
-  <si>
-    <t>FS015</t>
-  </si>
-  <si>
     <t>Salary</t>
   </si>
   <si>
@@ -165,36 +114,6 @@
   </si>
   <si>
     <t>O</t>
-  </si>
-  <si>
-    <t>E001</t>
-  </si>
-  <si>
-    <t>E002</t>
-  </si>
-  <si>
-    <t>E003</t>
-  </si>
-  <si>
-    <t>E004</t>
-  </si>
-  <si>
-    <t>E005</t>
-  </si>
-  <si>
-    <t>E006</t>
-  </si>
-  <si>
-    <t>E007</t>
-  </si>
-  <si>
-    <t>E008</t>
-  </si>
-  <si>
-    <t>E009</t>
-  </si>
-  <si>
-    <t>E010</t>
   </si>
 </sst>
 </file>
@@ -202,8 +121,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="d/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="d/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -241,10 +160,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -543,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="185" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,307 +489,259 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D2" s="3">
+        <v>46022</v>
+      </c>
+      <c r="E2" s="2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D3" s="3">
+        <v>46022</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D4" s="3">
+        <v>46022</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45838</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45838</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D7" s="3">
+        <v>46022</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D8" s="3">
+        <v>46022</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D9" s="5">
+        <v>45838</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D10" s="3">
+        <v>46022</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D11" s="3">
+        <v>46022</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D12" s="3">
+        <v>46022</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D13" s="3">
+        <v>46022</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E2" s="3">
-        <v>46022</v>
-      </c>
-      <c r="F2" s="2">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D14" s="3">
+        <v>46022</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E3" s="3">
-        <v>46022</v>
-      </c>
-      <c r="F3" s="2">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45839</v>
+      </c>
+      <c r="D15" s="3">
+        <v>46022</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E4" s="3">
-        <v>46022</v>
-      </c>
-      <c r="F4" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45838</v>
-      </c>
-      <c r="F5" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E6" s="5">
-        <v>45838</v>
-      </c>
-      <c r="F6" s="2">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E7" s="3">
-        <v>46022</v>
-      </c>
-      <c r="F7" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E8" s="3">
-        <v>46022</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E9" s="5">
-        <v>45838</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E10" s="3">
-        <v>46022</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E11" s="3">
-        <v>46022</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E12" s="3">
-        <v>46022</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E13" s="3">
-        <v>46022</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E14" s="3">
-        <v>46022</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
         <v>45839</v>
       </c>
-      <c r="E15" s="3">
-        <v>46022</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1">
-        <v>45839</v>
-      </c>
-      <c r="E16" s="3">
-        <v>46022</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="D16" s="3">
+        <v>46022</v>
+      </c>
+      <c r="E16" s="2">
         <v>3000</v>
       </c>
     </row>
@@ -882,204 +753,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
         <v>8000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="E2" s="4">
         <v>45698</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
         <v>7000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="E3" s="4">
         <v>45757</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
         <v>6000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="E4" s="4">
         <v>45818</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
         <v>10000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="E5" s="4">
         <v>45731</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
         <v>12000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="E6" s="4">
         <v>45797</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
         <v>9000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="E7" s="4">
         <v>45853</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
         <v>10000</v>
       </c>
-      <c r="F8" s="4">
+      <c r="E8" s="4">
         <v>45889</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
         <v>8000</v>
       </c>
-      <c r="F9" s="4">
+      <c r="E9" s="4">
         <v>45940</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
         <v>7000</v>
       </c>
-      <c r="F10" s="4">
+      <c r="E10" s="4">
         <v>45976</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
         <v>5000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="E11" s="4">
         <v>46001</v>
       </c>
     </row>
